--- a/src/analysis_examples/circadb/results_lomb/cosinor_10565288_fam108c_.xlsx
+++ b/src/analysis_examples/circadb/results_lomb/cosinor_10565288_fam108c_.xlsx
@@ -589,14 +589,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.24802478271596307, 0.34340601314997987]</t>
+          <t>[0.24875241057099762, 0.3426783852949453]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>1.910760438761372e-11</v>
+        <v>1.431610385793647e-11</v>
       </c>
       <c r="N2" t="n">
-        <v>1.910760438761372e-11</v>
+        <v>1.431610385793647e-11</v>
       </c>
       <c r="O2" t="n">
         <v>-1.05663176336954</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.48982770150399413, 0.5403419689916219]</t>
+          <t>[0.4898230340956528, 0.5403466363999632]</t>
         </is>
       </c>
       <c r="U2" t="n">
